--- a/Refer/DataTables.xlsx
+++ b/Refer/DataTables.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyLocalFolder\RDREssay\Refer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,50 +19,481 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>市场总貌</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+  <si>
+    <t>截止时间</t>
+  </si>
+  <si>
+    <t>新三板市场总貌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截止时间</t>
-  </si>
-  <si>
-    <t>证券数量:</t>
-  </si>
-  <si>
-    <t>7376家</t>
-  </si>
-  <si>
-    <t>总股本:</t>
-  </si>
-  <si>
-    <t>4580.52亿股</t>
-  </si>
-  <si>
-    <t>流通股本:</t>
-  </si>
-  <si>
-    <t>1751.09亿股</t>
-  </si>
-  <si>
-    <t>成交股数:</t>
-  </si>
-  <si>
-    <t>13335.82万股</t>
-  </si>
-  <si>
-    <t>成交金额:</t>
-  </si>
-  <si>
-    <t>76406.37万元</t>
+    <t>总股本（亿股）</t>
+  </si>
+  <si>
+    <t>总股本（亿股）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流通股本（亿股）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交股数（万股）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交金额（万元）</t>
+  </si>
+  <si>
+    <t>成交金额（万元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF474E5D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证券数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF474E5D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF474E5D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（家）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.neeq.com.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+  </si>
+  <si>
+    <t>发行次数</t>
+  </si>
+  <si>
+    <t>发行金额（万元）</t>
+  </si>
+  <si>
+    <t>发行股数（万股）</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>历年股票发行情况统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成交数量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万股）</t>
+    </r>
+  </si>
+  <si>
+    <t>成交笔数</t>
+  </si>
+  <si>
+    <r>
+      <t>换手率（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>历年股票成交情况统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂牌公司股东人数分布情况</t>
+  </si>
+  <si>
+    <t>股东人数</t>
+  </si>
+  <si>
+    <r>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年末</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年末</t>
+    </r>
+  </si>
+  <si>
+    <t>挂牌公司数</t>
+  </si>
+  <si>
+    <t>占比</t>
+  </si>
+  <si>
+    <t>10-50</t>
+  </si>
+  <si>
+    <t>50-100</t>
+  </si>
+  <si>
+    <t>100-200</t>
+  </si>
+  <si>
+    <r>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股本（万股）</t>
+  </si>
+  <si>
+    <t>公司家数</t>
+  </si>
+  <si>
+    <r>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以下</t>
+    </r>
+  </si>
+  <si>
+    <t>500-1000</t>
+  </si>
+  <si>
+    <t>1000-5000</t>
+  </si>
+  <si>
+    <t>5000-10000</t>
+  </si>
+  <si>
+    <r>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上（含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>注：采用上组限不在内原则，如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>500-1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区间中不包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>挂牌公司股本分布情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场主要统计指标概览</t>
+  </si>
+  <si>
+    <r>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2014</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2013</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>挂牌规模</t>
+  </si>
+  <si>
+    <t>挂牌公司家数</t>
+  </si>
+  <si>
+    <t>总市值（亿元）</t>
+  </si>
+  <si>
+    <t>股票发行</t>
+  </si>
+  <si>
+    <t>发行股数（亿股）</t>
+  </si>
+  <si>
+    <t>融资金额（亿元）</t>
+  </si>
+  <si>
+    <t>股票转让</t>
+  </si>
+  <si>
+    <t>成交金额（亿元）</t>
+  </si>
+  <si>
+    <t>成交数量（亿股）</t>
+  </si>
+  <si>
+    <r>
+      <t>换手率（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>市盈率（倍）</t>
+  </si>
+  <si>
+    <t>投资者账户数量</t>
+  </si>
+  <si>
+    <t>机构投资者（户）</t>
+  </si>
+  <si>
+    <t>个人投资者（户）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +515,97 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF474E5D"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +615,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -106,13 +623,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -125,9 +723,219 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -185,7 +993,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,7 +1028,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,82 +1205,935 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="1" spans="2:11">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="14.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="14.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>42513</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.25">
+    <row r="4" spans="2:11" ht="14.25">
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7376</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="14.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4580.5200000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="14.25">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1751.09</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="14.25">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>13335.82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="14.25">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>76406.37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="14.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="11" spans="2:11" ht="19.5" thickBot="1">
+      <c r="B11" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickBot="1">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" thickBot="1">
+      <c r="B13" s="8">
+        <v>2007</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10">
+        <v>11874.92</v>
+      </c>
+      <c r="E13" s="11">
+        <v>4542</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2006</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1592.63</v>
+      </c>
+      <c r="I13" s="22">
+        <v>8340.7099999999991</v>
+      </c>
+      <c r="J13" s="21">
+        <v>251</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" thickBot="1">
+      <c r="B14" s="8">
+        <v>2008</v>
+      </c>
+      <c r="C14" s="9">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10">
+        <v>24564.55</v>
+      </c>
+      <c r="E14" s="11">
+        <v>5620</v>
+      </c>
+      <c r="G14" s="21">
+        <v>2007</v>
+      </c>
+      <c r="H14" s="22">
+        <v>4420.1499999999996</v>
+      </c>
+      <c r="I14" s="22">
+        <v>23156.63</v>
+      </c>
+      <c r="J14" s="21">
+        <v>521</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" thickBot="1">
+      <c r="B15" s="8">
+        <v>2009</v>
+      </c>
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="14.25">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="14.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="14.25">
-      <c r="B7" s="1" t="s">
+      <c r="D15" s="10">
+        <v>5639.28</v>
+      </c>
+      <c r="E15" s="12">
+        <v>956</v>
+      </c>
+      <c r="G15" s="21">
+        <v>2008</v>
+      </c>
+      <c r="H15" s="22">
+        <v>5407.86</v>
+      </c>
+      <c r="I15" s="22">
+        <v>29527.82</v>
+      </c>
+      <c r="J15" s="21">
+        <v>484</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" thickBot="1">
+      <c r="B16" s="8">
+        <v>2010</v>
+      </c>
+      <c r="C16" s="9">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="14.25">
-      <c r="B8" s="1" t="s">
+      <c r="D16" s="10">
+        <v>35835.910000000003</v>
+      </c>
+      <c r="E16" s="11">
+        <v>6867</v>
+      </c>
+      <c r="G16" s="21">
+        <v>2009</v>
+      </c>
+      <c r="H16" s="22">
+        <v>10735.76</v>
+      </c>
+      <c r="I16" s="22">
+        <v>48342.53</v>
+      </c>
+      <c r="J16" s="21">
+        <v>878</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B17" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C17" s="9">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
+      <c r="D17" s="10">
+        <v>64818.45</v>
+      </c>
+      <c r="E17" s="11">
+        <v>8007</v>
+      </c>
+      <c r="G17" s="21">
+        <v>2010</v>
+      </c>
+      <c r="H17" s="22">
+        <v>6951.29</v>
+      </c>
+      <c r="I17" s="22">
+        <v>41872.239999999998</v>
+      </c>
+      <c r="J17" s="21">
+        <v>644</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B18" s="8">
+        <v>2012</v>
+      </c>
+      <c r="C18" s="9">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10">
+        <v>85886</v>
+      </c>
+      <c r="E18" s="11">
+        <v>19292</v>
+      </c>
+      <c r="G18" s="21">
+        <v>2011</v>
+      </c>
+      <c r="H18" s="22">
+        <v>9562.76</v>
+      </c>
+      <c r="I18" s="22">
+        <v>56169.56</v>
+      </c>
+      <c r="J18" s="21">
+        <v>832</v>
+      </c>
+      <c r="K18" s="24">
+        <v>5.57E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B19" s="8">
+        <v>2013</v>
+      </c>
+      <c r="C19" s="9">
+        <v>60</v>
+      </c>
+      <c r="D19" s="10">
+        <v>100236.43</v>
+      </c>
+      <c r="E19" s="11">
+        <v>29193.87</v>
+      </c>
+      <c r="G19" s="21">
+        <v>2012</v>
+      </c>
+      <c r="H19" s="22">
+        <v>11455.51</v>
+      </c>
+      <c r="I19" s="22">
+        <v>58431.81</v>
+      </c>
+      <c r="J19" s="21">
+        <v>638</v>
+      </c>
+      <c r="K19" s="24">
+        <v>4.4699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B20" s="8">
+        <v>2014</v>
+      </c>
+      <c r="C20" s="9">
+        <v>329</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1320858.2</v>
+      </c>
+      <c r="E20" s="11">
+        <v>265197.5</v>
+      </c>
+      <c r="G20" s="21">
+        <v>2013</v>
+      </c>
+      <c r="H20" s="22">
+        <v>20242.52</v>
+      </c>
+      <c r="I20" s="22">
+        <v>81396.19</v>
+      </c>
+      <c r="J20" s="21">
+        <v>989</v>
+      </c>
+      <c r="K20" s="24">
+        <v>4.4699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B21" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2565</v>
+      </c>
+      <c r="D21" s="13">
+        <v>12161718.99</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2307945.2599999998</v>
+      </c>
+      <c r="G21" s="21">
+        <v>2014</v>
+      </c>
+      <c r="H21" s="22">
+        <v>228212.4</v>
+      </c>
+      <c r="I21" s="22">
+        <v>1303580.47</v>
+      </c>
+      <c r="J21" s="25">
+        <v>92654</v>
+      </c>
+      <c r="K21" s="24">
+        <v>0.19670000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3006</v>
+      </c>
+      <c r="D22" s="17">
+        <v>13811432.73</v>
+      </c>
+      <c r="E22" s="18">
+        <v>2647620.63</v>
+      </c>
+      <c r="G22" s="26">
+        <v>2015</v>
+      </c>
+      <c r="H22" s="27">
+        <v>2789072.49</v>
+      </c>
+      <c r="I22" s="27">
+        <v>19106224.989999998</v>
+      </c>
+      <c r="J22" s="28">
+        <v>2821339</v>
+      </c>
+      <c r="K22" s="29">
+        <v>0.53879999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="19.5" thickBot="1">
+      <c r="B24" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="H24" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B25" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="H25" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="47"/>
+      <c r="K25" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="48"/>
+    </row>
+    <row r="26" spans="2:12" ht="15" thickBot="1">
+      <c r="B26" s="45"/>
+      <c r="C26" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B27" s="9">
+        <v>2</v>
+      </c>
+      <c r="C27" s="36">
+        <v>397</v>
+      </c>
+      <c r="D27" s="37">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>146</v>
+      </c>
+      <c r="F27" s="38">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="36">
+        <v>25</v>
+      </c>
+      <c r="J27" s="37">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="38">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B28" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1741</v>
+      </c>
+      <c r="D28" s="37">
+        <v>0.33939999999999998</v>
+      </c>
+      <c r="E28" s="9">
+        <v>669</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="36">
+        <v>447</v>
+      </c>
+      <c r="J28" s="37">
+        <v>8.72E-2</v>
+      </c>
+      <c r="K28" s="9">
+        <v>214</v>
+      </c>
+      <c r="L28" s="38">
+        <v>0.1361</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B29" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="36">
+        <v>2056</v>
+      </c>
+      <c r="D29" s="37">
+        <v>0.40089999999999998</v>
+      </c>
+      <c r="E29" s="9">
+        <v>596</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="36">
+        <v>2916</v>
+      </c>
+      <c r="J29" s="37">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="K29" s="9">
+        <v>944</v>
+      </c>
+      <c r="L29" s="38">
+        <v>0.60050000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="36">
+        <v>453</v>
+      </c>
+      <c r="D30" s="37">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="E30" s="9">
+        <v>98</v>
+      </c>
+      <c r="F30" s="38">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="36">
+        <v>1209</v>
+      </c>
+      <c r="J30" s="37">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="K30" s="9">
+        <v>324</v>
+      </c>
+      <c r="L30" s="38">
+        <v>0.20610000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="36">
+        <v>275</v>
+      </c>
+      <c r="D31" s="37">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="E31" s="9">
+        <v>51</v>
+      </c>
+      <c r="F31" s="38">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="36">
+        <v>532</v>
+      </c>
+      <c r="J31" s="37">
+        <v>0.1037</v>
+      </c>
+      <c r="K31" s="9">
+        <v>89</v>
+      </c>
+      <c r="L31" s="38">
+        <v>5.6599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="16.5" thickBot="1">
+      <c r="B32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="36">
+        <v>207</v>
+      </c>
+      <c r="D32" s="37">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="E32" s="9">
+        <v>12</v>
+      </c>
+      <c r="F32" s="38">
+        <v>7.6E-3</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="40">
+        <v>5129</v>
+      </c>
+      <c r="J32" s="41">
+        <v>1</v>
+      </c>
+      <c r="K32" s="42">
+        <v>1572</v>
+      </c>
+      <c r="L32" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B33" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="40">
+        <v>5129</v>
+      </c>
+      <c r="D33" s="41">
+        <v>1</v>
+      </c>
+      <c r="E33" s="42">
+        <v>1572</v>
+      </c>
+      <c r="F33" s="43">
+        <v>1</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B36" s="32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="16.5" thickBot="1">
+      <c r="B37" s="52"/>
+      <c r="C37" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.75">
+      <c r="B38" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+    </row>
+    <row r="39" spans="2:8" ht="15.75">
+      <c r="B39" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="57">
+        <v>5129</v>
+      </c>
+      <c r="D39" s="61">
+        <v>1572</v>
+      </c>
+      <c r="E39" s="62">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75">
+      <c r="B40" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="63">
+        <v>2959.51</v>
+      </c>
+      <c r="D40" s="61">
+        <v>658.35</v>
+      </c>
+      <c r="E40" s="62">
+        <v>97.17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15.75">
+      <c r="B41" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="57">
+        <v>24584.42</v>
+      </c>
+      <c r="D41" s="61">
+        <v>4591.42</v>
+      </c>
+      <c r="E41" s="62">
+        <v>553.05999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15.75">
+      <c r="B42" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="57"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="64"/>
+    </row>
+    <row r="43" spans="2:8" ht="15.75">
+      <c r="B43" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="65">
+        <v>2565</v>
+      </c>
+      <c r="D43" s="66">
+        <v>329</v>
+      </c>
+      <c r="E43" s="67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15.75">
+      <c r="B44" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="65">
+        <v>230.79</v>
+      </c>
+      <c r="D44" s="66">
+        <v>26.52</v>
+      </c>
+      <c r="E44" s="67">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15.75">
+      <c r="B45" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="65">
+        <v>1216.17</v>
+      </c>
+      <c r="D45" s="66">
+        <v>132.09</v>
+      </c>
+      <c r="E45" s="67">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15.75">
+      <c r="B46" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="64"/>
+    </row>
+    <row r="47" spans="2:8" ht="15.75">
+      <c r="B47" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="63">
+        <v>1910.62</v>
+      </c>
+      <c r="D47" s="61">
+        <v>130.36000000000001</v>
+      </c>
+      <c r="E47" s="62">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="15.75">
+      <c r="B48" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="57">
+        <v>278.91000000000003</v>
+      </c>
+      <c r="D48" s="61">
+        <v>22.82</v>
+      </c>
+      <c r="E48" s="62">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="15.75">
+      <c r="B49" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="57">
+        <v>53.88</v>
+      </c>
+      <c r="D49" s="61">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="E49" s="62">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="15.75">
+      <c r="B50" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="57">
+        <v>47.23</v>
+      </c>
+      <c r="D50" s="61">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="E50" s="62">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="15.75">
+      <c r="B51" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="57"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="64"/>
+    </row>
+    <row r="52" spans="2:5" ht="15.75">
+      <c r="B52" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="68">
+        <v>22717</v>
+      </c>
+      <c r="D52" s="69">
+        <v>4695</v>
+      </c>
+      <c r="E52" s="70">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B53" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="72">
+        <v>198625</v>
+      </c>
+      <c r="D53" s="73">
+        <v>43980</v>
+      </c>
+      <c r="E53" s="74">
+        <v>7436</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>